--- a/total_time.xlsx
+++ b/total_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-20" windowWidth="25600" windowHeight="26680" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="total_time.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t xml:space="preserve">ChinaSpeed </t>
   </si>
@@ -112,14 +112,51 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>PeopleOnStreet</t>
+  </si>
+  <si>
+    <t>Kimono</t>
+  </si>
+  <si>
+    <t>BasketballDrive</t>
+  </si>
+  <si>
+    <t>PartyScene</t>
+  </si>
+  <si>
+    <t>RaceHorses</t>
+  </si>
+  <si>
+    <t>BQSquare</t>
+  </si>
+  <si>
+    <t>BlowingBubbles</t>
+  </si>
+  <si>
+    <t>FourPeople</t>
+  </si>
+  <si>
+    <t>BasketballDrillText</t>
+  </si>
+  <si>
+    <t>ChinaSpeed</t>
+  </si>
+  <si>
+    <t>T (128f)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +250,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,7 +284,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,8 +304,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -259,8 +328,15 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -270,6 +346,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -279,6 +359,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,16 +692,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="9"/>
   </cols>
@@ -1012,11 +1097,11 @@
       <c r="C32" s="7"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:9">
       <c r="C33" s="7"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -1027,11 +1112,11 @@
         <v>8176.8149999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:9">
       <c r="C35" s="7"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1127,7 @@
         <v>7066.3549999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1138,7 @@
         <v>3993.2775000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1149,7 @@
         <v>3195.7224999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1160,7 @@
         <v>3993.2775000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:9">
       <c r="C40" s="7" t="s">
         <v>7</v>
       </c>
@@ -1086,13 +1171,16 @@
         <v>24</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="10">
+        <v>10200.620000000001</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="H40" s="12">
-        <v>8176.8149999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+    </row>
+    <row r="41" spans="2:9">
       <c r="C41" s="7" t="s">
         <v>2</v>
       </c>
@@ -1103,13 +1191,16 @@
         <v>24</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="11">
-        <v>7066.3549999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>16</v>
+      </c>
+      <c r="H41" s="13">
+        <v>478.05849999999998</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -1123,13 +1214,16 @@
         <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="10">
-        <v>10200.620000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+        <v>6</v>
+      </c>
+      <c r="H42" s="13">
+        <v>3195.7224999999999</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
@@ -1140,13 +1234,16 @@
         <v>23</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="11">
-        <v>9450.16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3993.2775000000001</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="C44" s="7" t="s">
         <v>10</v>
       </c>
@@ -1157,13 +1254,16 @@
         <v>28</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="13">
-        <v>3195.7224999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>11</v>
+      </c>
+      <c r="H44" s="11">
+        <v>9450.16</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="C45" s="7" t="s">
         <v>4</v>
       </c>
@@ -1174,13 +1274,16 @@
         <v>28</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="10">
-        <v>2040.6244999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>10</v>
+      </c>
+      <c r="H45" s="13">
+        <v>1850.5350000000001</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" t="s">
         <v>29</v>
       </c>
@@ -1194,13 +1297,16 @@
         <v>29</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="13">
-        <v>594.84799999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>26</v>
+      </c>
+      <c r="H46" s="10">
+        <v>3993.2775000000001</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" t="s">
         <v>29</v>
       </c>
@@ -1214,13 +1320,16 @@
         <v>29</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="13">
-        <v>478.05849999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="12">
+        <v>8176.8149999999996</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="C48" s="7" t="s">
         <v>15</v>
       </c>
@@ -1231,48 +1340,217 @@
         <v>27</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="10">
-        <v>3993.2775000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8">
+        <v>17</v>
+      </c>
+      <c r="H48" s="13">
+        <v>594.84799999999996</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
       <c r="F49" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="10">
         <v>3993.2775000000001</v>
       </c>
-    </row>
-    <row r="50" spans="6:8">
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9">
       <c r="F50" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>0</v>
+      <c r="G50" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="H50" s="10">
-        <v>3993.2775000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8">
+        <v>2040.6244999999999</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
       <c r="F51" t="s">
         <v>30</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="13">
-        <v>1850.5350000000001</v>
+        <v>12</v>
+      </c>
+      <c r="H51" s="11">
+        <v>7066.3549999999996</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="H52" s="9">
+        <f>SUM(H40:H51)/4</f>
+        <v>13758.392749999999</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9">
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9">
+      <c r="D58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="16">
+        <v>14.217901666666666</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9">
+      <c r="D59" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="17">
+        <v>1.528383888888889</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9">
+      <c r="D60" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="17">
+        <v>9.3733680555555559</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9">
+      <c r="D61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1.6355872222222221</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9">
+      <c r="D62" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="18">
+        <v>2.5548416666666665</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9">
+      <c r="D63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="18">
+        <v>6.4824263888888884</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9">
+      <c r="D64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="19">
+        <v>0.22352583333333301</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="19">
+        <v>0.23068444444444444</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="19">
+        <v>1.0370013888888889</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="19">
+        <v>1.2661922222222222</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="19">
+        <v>1.5729683333333333</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="19">
+        <v>6.4732577777777776</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="15"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="15"/>
+      <c r="E71" s="14">
+        <f>SUM(E58:E69)/4</f>
+        <v>11.649034722222222</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F40:H51">
-    <sortCondition ref="F40"/>
+  <sortState ref="D58:F69">
+    <sortCondition ref="F58:F69"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/total_time.xlsx
+++ b/total_time.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="26680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="total_time.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="44">
   <si>
     <t xml:space="preserve">ChinaSpeed </t>
   </si>
@@ -87,9 +88,6 @@
     <t>as</t>
   </si>
   <si>
-    <t>sa</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -148,6 +146,12 @@
   </si>
   <si>
     <t>T (128f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -158,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -182,8 +186,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +284,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,8 +299,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -312,8 +359,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -335,8 +406,11 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -350,6 +424,18 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -363,6 +449,18 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" activeCellId="3" sqref="D6 D7 D10 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -748,8 +846,17 @@
       <c r="B3" s="5">
         <v>9450.16</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11">
+        <v>9025.0224999999991</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>11</v>
@@ -765,8 +872,17 @@
       <c r="B4" s="3">
         <v>9025.0224999999991</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>8720.1200000000008</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -782,8 +898,17 @@
       <c r="B5" s="4">
         <v>8741.9125000000004</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8741.9125000000004</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
@@ -799,6 +924,18 @@
       <c r="B6" s="6">
         <v>8720.1200000000008</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2067.0842499999999</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
@@ -813,8 +950,17 @@
       <c r="B7" s="4">
         <v>8176.8149999999996</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2009.9335000000001</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>1</v>
@@ -830,8 +976,17 @@
       <c r="B8" s="3">
         <v>7732.1450000000004</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13">
+        <v>457.20925</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>9</v>
@@ -847,8 +1002,17 @@
       <c r="B9" s="2">
         <v>7066.3549999999996</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13">
+        <v>758.35649999999998</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>12</v>
@@ -864,8 +1028,17 @@
       <c r="B10" s="1">
         <v>3993.2775000000001</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2654.6350000000002</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>0</v>
@@ -881,6 +1054,18 @@
       <c r="B11" s="6">
         <v>3195.7224999999999</v>
       </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2355.5862499999998</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>6</v>
       </c>
@@ -897,6 +1082,10 @@
       </c>
       <c r="C12" t="s">
         <v>21</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E3:E11)/4</f>
+        <v>9197.4649375000008</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>18</v>
@@ -1065,7 +1254,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>3</v>
@@ -1080,7 +1269,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>11</v>
@@ -1103,7 +1292,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>1</v>
@@ -1118,7 +1307,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>12</v>
@@ -1129,10 +1318,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="10">
         <v>3993.2775000000001</v>
@@ -1140,7 +1329,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>6</v>
@@ -1151,10 +1340,10 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="10">
         <v>3993.2775000000001</v>
@@ -1168,7 +1357,7 @@
         <v>2355.5862499999998</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>3</v>
@@ -1188,7 +1377,7 @@
         <v>2067.0842499999999</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>16</v>
@@ -1202,7 +1391,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>19</v>
@@ -1211,7 +1400,7 @@
         <v>2040.6244999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>6</v>
@@ -1231,7 +1420,7 @@
         <v>2009.9335000000001</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>0</v>
@@ -1251,7 +1440,7 @@
         <v>1850.5350000000001</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>11</v>
@@ -1271,7 +1460,7 @@
         <v>758.35649999999998</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>10</v>
@@ -1285,7 +1474,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>17</v>
@@ -1294,10 +1483,10 @@
         <v>594.84799999999996</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="10">
         <v>3993.2775000000001</v>
@@ -1308,7 +1497,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>16</v>
@@ -1317,7 +1506,7 @@
         <v>478.05849999999998</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>1</v>
@@ -1337,7 +1526,7 @@
         <v>457.20925</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>17</v>
@@ -1351,10 +1540,10 @@
     </row>
     <row r="49" spans="4:9">
       <c r="F49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H49" s="10">
         <v>3993.2775000000001</v>
@@ -1365,7 +1554,7 @@
     </row>
     <row r="50" spans="4:9">
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>19</v>
@@ -1379,7 +1568,7 @@
     </row>
     <row r="51" spans="4:9">
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>12</v>
@@ -1399,12 +1588,12 @@
     </row>
     <row r="57" spans="4:9">
       <c r="E57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="4:9">
       <c r="D58" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="16">
         <v>14.217901666666666</v>
@@ -1415,7 +1604,7 @@
     </row>
     <row r="59" spans="4:9">
       <c r="D59" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" s="17">
         <v>1.528383888888889</v>
@@ -1426,7 +1615,7 @@
     </row>
     <row r="60" spans="4:9">
       <c r="D60" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="17">
         <v>9.3733680555555559</v>
@@ -1437,7 +1626,7 @@
     </row>
     <row r="61" spans="4:9">
       <c r="D61" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E61" s="18">
         <v>1.6355872222222221</v>
@@ -1448,7 +1637,7 @@
     </row>
     <row r="62" spans="4:9">
       <c r="D62" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="18">
         <v>2.5548416666666665</v>
@@ -1459,7 +1648,7 @@
     </row>
     <row r="63" spans="4:9">
       <c r="D63" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" s="18">
         <v>6.4824263888888884</v>
@@ -1470,7 +1659,7 @@
     </row>
     <row r="64" spans="4:9">
       <c r="D64" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" s="19">
         <v>0.22352583333333301</v>
@@ -1481,7 +1670,7 @@
     </row>
     <row r="65" spans="4:6">
       <c r="D65" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65" s="19">
         <v>0.23068444444444444</v>
@@ -1492,7 +1681,7 @@
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E66" s="19">
         <v>1.0370013888888889</v>
@@ -1503,7 +1692,7 @@
     </row>
     <row r="67" spans="4:6">
       <c r="D67" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" s="19">
         <v>1.2661922222222222</v>
@@ -1514,7 +1703,7 @@
     </row>
     <row r="68" spans="4:6">
       <c r="D68" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="19">
         <v>1.5729683333333333</v>
@@ -1525,7 +1714,7 @@
     </row>
     <row r="69" spans="4:6">
       <c r="D69" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" s="19">
         <v>6.4732577777777776</v>
@@ -1560,4 +1749,299 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="21">
+        <v>4.6475361111111111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3.7482577777777775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22">
+        <v>3.0802319444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" thickBot="1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2.7418758333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2.1405375000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1.6801994444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1.4103397222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" thickBot="1">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1.2421811111111112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.45204388888888886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.33264638888888892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.26344416666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" thickBot="1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.21805777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21">
+        <v>7.7931111111111118E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="22">
+        <v>5.8784166666666665E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="22">
+        <v>4.7018055555555549E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" thickBot="1">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="23">
+        <v>3.9792499999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.47027249999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.39333638888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.36274472222222226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" thickBot="1">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0.34661472222222223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.33575472222222225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0.27330777777777776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="22">
+        <v>0.22833722222222222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19" thickBot="1">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0.19960166666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14">
+        <f>SUM(B1:B4)</f>
+        <v>14.217901666666666</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="14">
+        <f>SUM(B5:B8)</f>
+        <v>6.4732577777777776</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="14">
+        <f>SUM(B9:B12)</f>
+        <v>1.2661922222222222</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="14">
+        <f>SUM(B13:B16)</f>
+        <v>0.22352583333333331</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="14">
+        <f>SUM(B17:B20)</f>
+        <v>1.5729683333333333</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="14">
+        <f>SUM(B21:B24)</f>
+        <v>1.0370013888888889</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="14">
+        <f>SUM(B27:B32)/4</f>
+        <v>6.1977118055555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/total_time.xlsx
+++ b/total_time.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="26680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="-20" windowWidth="25600" windowHeight="26680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="total_time.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$84</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="51">
   <si>
     <t xml:space="preserve">ChinaSpeed </t>
   </si>
@@ -152,6 +156,27 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>ParkScene</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>BQTerrace</t>
+  </si>
+  <si>
+    <t>BQMall</t>
+  </si>
+  <si>
+    <t>BasketballPass</t>
+  </si>
+  <si>
+    <t>SlideEditing</t>
+  </si>
+  <si>
+    <t>SlideShow</t>
   </si>
 </sst>
 </file>
@@ -193,7 +218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +315,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -331,7 +380,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,8 +432,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -409,8 +526,17 @@
     <xf numFmtId="165" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -436,6 +562,40 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -461,6 +621,40 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,7 +987,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" activeCellId="3" sqref="D6 D7 D10 D11"/>
+      <selection activeCell="G40" sqref="G40:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1755,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
@@ -2044,4 +2238,1082 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21">
+        <v>3.0974827777777776</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14">
+        <f>SUM(B1:B4)</f>
+        <v>9.3733680555555559</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="24">
+        <v>9.3733680555555559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2.3834055555555556</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="14">
+        <f>SUM(B5:B8)</f>
+        <v>14.217901666666666</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="24">
+        <v>14.217901666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2.0553788888888889</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="14">
+        <f>SUM(B9:B12)</f>
+        <v>6.4824263888888884</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="24">
+        <v>6.4824263888888884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" thickBot="1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.8371008333333334</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="14">
+        <f>SUM(B13:B16)</f>
+        <v>5.2614586111111112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="24">
+        <v>5.2614586111111112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="21">
+        <v>4.6475361111111111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="14">
+        <f>SUM(B17:B20)</f>
+        <v>5.3321786111111118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="24">
+        <v>5.3321786111111118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="22">
+        <v>3.7482577777777775</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SUM(B21:B24)</f>
+        <v>6.4732577777777776</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="24">
+        <v>6.4732577777777776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="22">
+        <v>3.0802319444444444</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14">
+        <f>SUM(B25:B28)</f>
+        <v>5.5028094444444449</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="24">
+        <v>5.5028094444444449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" thickBot="1">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2.7418758333333333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="14">
+        <f>SUM(B29:B32)</f>
+        <v>1.0657838888888889</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1.0657838888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2.0535858333333334</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14">
+        <f>SUM(B33:B36)</f>
+        <v>1.2661922222222222</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="24">
+        <v>1.2661922222222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1.7200358333333332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(B37:B40)</f>
+        <v>1.6355872222222221</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1.6355872222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1.4508638888888887</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="14">
+        <f>SUM(B41:B44)</f>
+        <v>0.2177938888888889</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.2177938888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" thickBot="1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1.2579408333333335</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14">
+        <f>SUM(B45:B48)</f>
+        <v>0.23068444444444444</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.23068444444444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1.7677272222222222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14">
+        <f>SUM(B49:B52)</f>
+        <v>0.22352583333333331</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.22352583333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1.3526433333333332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="14">
+        <f>SUM(B53:B56)</f>
+        <v>0.55792444444444445</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.55792444444444445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1.1334597222222222</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="14">
+        <f>SUM(B57:B60)</f>
+        <v>1.5729683333333333</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="24">
+        <v>1.5729683333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19" thickBot="1">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1.0076283333333333</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="14">
+        <f>SUM(B61:B64)</f>
+        <v>1.528383888888889</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="24">
+        <v>1.528383888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1.8585066666666665</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="14">
+        <f>SUM(B65:B68)</f>
+        <v>1.0370013888888889</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="24">
+        <v>1.0370013888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22">
+        <v>1.3346591666666667</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="14">
+        <f>SUM(B69:B72)</f>
+        <v>2.5548416666666665</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="24">
+        <v>2.5548416666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1.1287850000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="14">
+        <f>SUM(B73:B76)</f>
+        <v>1.3260744444444446</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="24">
+        <v>1.3260744444444446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19" thickBot="1">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1.0102277777777777</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="14">
+        <f>SUM(B77:B80)</f>
+        <v>1.7102533333333334</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="24">
+        <v>1.7102533333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21">
+        <v>2.1405375000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="22">
+        <v>1.6801994444444444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="22">
+        <v>1.4103397222222223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19" thickBot="1">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1.2421811111111112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2.1804794444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="22">
+        <v>1.349848611111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="22">
+        <v>1.0509494444444445</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="26">
+        <v>14.217901666666666</v>
+      </c>
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19" thickBot="1">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0.92153194444444442</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="28">
+        <v>9.3733680555555559</v>
+      </c>
+      <c r="H28" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.34797861111111111</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="28">
+        <v>1.6355872222222221</v>
+      </c>
+      <c r="H29" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0.27758555555555553</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="30">
+        <v>6.4824263888888884</v>
+      </c>
+      <c r="H30" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0.23418194444444443</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="30">
+        <v>1.0657838888888889</v>
+      </c>
+      <c r="H31" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19" thickBot="1">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.20603777777777776</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1.5729683333333333</v>
+      </c>
+      <c r="H32" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0.45204388888888886</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1.528383888888889</v>
+      </c>
+      <c r="H33" s="29">
+        <v>3</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="22">
+        <v>0.33264638888888892</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1.0370013888888889</v>
+      </c>
+      <c r="H34" s="29">
+        <v>3</v>
+      </c>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0.26344416666666665</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="32">
+        <v>6.4732577777777776</v>
+      </c>
+      <c r="H35" s="31">
+        <v>4</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" ht="19" thickBot="1">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0.21805777777777779</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.2177938888888889</v>
+      </c>
+      <c r="H36" s="31">
+        <v>4</v>
+      </c>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="21">
+        <v>0.56205583333333331</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0.22352583333333331</v>
+      </c>
+      <c r="H37" s="31">
+        <v>4</v>
+      </c>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="22">
+        <v>0.43038333333333334</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="32">
+        <v>2.5548416666666665</v>
+      </c>
+      <c r="H38" s="31">
+        <v>4</v>
+      </c>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="22">
+        <v>0.34892527777777782</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="G39">
+        <f>SUM(G27:G38)/4</f>
+        <v>11.59571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19" thickBot="1">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.29422277777777778</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="21">
+        <v>6.7979722222222219E-2</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="22">
+        <v>5.7472500000000003E-2</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22">
+        <v>4.9218333333333336E-2</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" ht="19" thickBot="1">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="23">
+        <v>4.3123333333333333E-2</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="21">
+        <v>8.5066666666666665E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="22">
+        <v>6.063388888888889E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="22">
+        <v>4.6285833333333332E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19" thickBot="1">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="23">
+        <v>3.8698055555555555E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="21">
+        <v>7.7931111111111118E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="22">
+        <v>5.8784166666666665E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="22">
+        <v>4.7018055555555549E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" thickBot="1">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="23">
+        <v>3.9792499999999995E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="21">
+        <v>0.16678583333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="22">
+        <v>0.15098111111111112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="22">
+        <v>0.12998999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" thickBot="1">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="23">
+        <v>0.1101675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="21">
+        <v>0.47027249999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="22">
+        <v>0.39333638888888889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="22">
+        <v>0.36274472222222226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19" thickBot="1">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="23">
+        <v>0.34661472222222223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="21">
+        <v>0.46083777777777779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="22">
+        <v>0.37981027777777776</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="22">
+        <v>0.35170416666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" thickBot="1">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="23">
+        <v>0.33603166666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="21">
+        <v>0.33575472222222225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="22">
+        <v>0.27330777777777776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="22">
+        <v>0.22833722222222222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19" thickBot="1">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="23">
+        <v>0.19960166666666668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="21">
+        <v>0.81917916666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="22">
+        <v>0.69233861111111106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="22">
+        <v>0.56913361111111105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19" thickBot="1">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="23">
+        <v>0.47419027777777778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="21">
+        <v>0.3370852777777778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="22">
+        <v>0.33307416666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="22">
+        <v>0.32880861111111109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" thickBot="1">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="23">
+        <v>0.32710638888888893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="21">
+        <v>0.45796805555555553</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="22">
+        <v>0.4380202777777778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="22">
+        <v>0.41697083333333335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" thickBot="1">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="23">
+        <v>0.39729416666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="22"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="2:2" ht="19" thickBot="1">
+      <c r="B84" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A96"/>
+  <sortState ref="F27:H38">
+    <sortCondition ref="H27:H38"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>